--- a/biology/Zoologie/Carpophage_des_Marquises/Carpophage_des_Marquises.xlsx
+++ b/biology/Zoologie/Carpophage_des_Marquises/Carpophage_des_Marquises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula galeata
 Le Carpophage des Marquises (Ducula galeata) est une espèce d'oiseau appartenant à la famille des Columbidae. Son nom commun en marquisien est Ùpe (prononcer 'Oupé).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 55 cm de longueur.
 La morphologie de cette espèce diffère un peu de celle des autres membres du genre Ducula puisqu'elle possède une grosse et large tête ainsi qu'une longue queue.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique des îles Marquises.
 </t>
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les vallées forestières.
 </t>
@@ -609,9 +627,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau consomme des fruits. D'où son nom à l'étymologie grecque[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau consomme des fruits. D'où son nom à l'étymologie grecque.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond un seul œuf brun crème pâle.
 </t>
@@ -671,7 +693,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est menacé par la dégradation de son habitat (bovins, chèvres et cochons) et surtout par la chasse très importante. En 1993, sa population était estimée à moins de 300 oiseaux.
 </t>
